--- a/biology/Zoologie/Eucoelophysis/Eucoelophysis.xlsx
+++ b/biology/Zoologie/Eucoelophysis/Eucoelophysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucoelophysis baldwini
 Eucoelophysis est un  genre éteint de dinosauriformes ayant vécu au Trias supérieur (Norien), et a été découvert dans la formation de Chinle au Nouveau-Mexique (États-Unis).
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,10 +553,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Supposé être un coelophysidé lors de sa description initiale[1], une étude réalisée par Nesbitt a constaté que c'était en réalité un proche parent de Silesaurus[2],[3] ce qui a été confirmé indépendamment par Ezcurra en 2006, qui a trouvé qu'il s'agissait d'un taxon-frère de Dinosauria et que le taxon Silesaurus en était l'élément le plus primitif[4].
-Cependant, les relations de Silesaurus sont incertaines. Dzik estime que c'était un dinosauriforme (un groupe d'archosaures à partir duquel ont évolué les dinosaures), mais n'a pas exclu la possibilité qu'il s'agissait d'un ornithischien primitif[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supposé être un coelophysidé lors de sa description initiale, une étude réalisée par Nesbitt a constaté que c'était en réalité un proche parent de Silesaurus, ce qui a été confirmé indépendamment par Ezcurra en 2006, qui a trouvé qu'il s'agissait d'un taxon-frère de Dinosauria et que le taxon Silesaurus en était l'élément le plus primitif.
+Cependant, les relations de Silesaurus sont incertaines. Dzik estime que c'était un dinosauriforme (un groupe d'archosaures à partir duquel ont évolué les dinosaures), mais n'a pas exclu la possibilité qu'il s'agissait d'un ornithischien primitif.
 </t>
         </is>
       </c>
